--- a/docs/tutorials/introduction/my_first_model.xlsx
+++ b/docs/tutorials/introduction/my_first_model.xlsx
@@ -696,7 +696,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_e94fce27_30ed_4ac9_8732_84908c25b0be</t>
+          <t>http://purl.org/cognite/neat/neatId_b167295a_5ca8_40a5_82e7_733b4a60e24e</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_6865b18d_4b5e_4405_9f93_f7217ffda546</t>
+          <t>http://purl.org/cognite/neat/neatId_55f27c69_4c84_462c_b8ac_05454643221d</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -798,7 +798,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_79d93393_a1d2_4341_82d2_2b64ac875df5</t>
+          <t>http://purl.org/cognite/neat/neatId_7fb41dd9_a8c4_47f2_b5b4_c4561faa1e75</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_b70ce5df_0df4_424f_a87f_6d4a3afd1d5b</t>
+          <t>http://purl.org/cognite/neat/neatId_ea3423a6_058c_4e9d_94e1_45ddff497e85</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -890,7 +890,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_75efa5d7_4304_4d74_9eb0_fced16813d1d</t>
+          <t>http://purl.org/cognite/neat/neatId_2416f475_8230_4972_82b6_71dd141cfe9b</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -936,7 +936,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_622e0939_e15b_49f9_8833_fbde4b786fc0</t>
+          <t>http://purl.org/cognite/neat/neatId_61b63785_b2df_4c48_96fe_c81dc31c94d4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -983,7 +983,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_c6df67d2_9e64_44e6_8cc8_72f02ad0e7f3</t>
+          <t>http://purl.org/cognite/neat/neatId_b6e8f73a_f802_415c_b426_acccc63be6bb</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1018,7 +1018,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_8f39d851_678f_4984_a141_8adc9ea54939</t>
+          <t>http://purl.org/cognite/neat/neatId_4346d93d_08fe_4c11_b26e_2d6823a1aab9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_9a14debc_1049_4386_b312_27144ec098b3</t>
+          <t>http://purl.org/cognite/neat/neatId_1fb6a637_465e_437b_8899_b002e197b1a5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1115,7 +1115,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_e5f38066_d87a_4a90_9d06_f02b836a8614</t>
+          <t>http://purl.org/cognite/neat/neatId_3caa5c19_e7b3_4db6_885a_4a2a3c83b116</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_7c9b1fdf_4903_47fe_ab2b_6c1c17b6f85c</t>
+          <t>http://purl.org/cognite/neat/neatId_8f3a6453_af1f_40cd_ae8c_4122c2a683eb</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1196,7 +1196,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_bbcfa6fc_71d7_4f3e_bdd2_511d354134da</t>
+          <t>http://purl.org/cognite/neat/neatId_a4c7af10_13ce_4652_b5a6_c3507b6ced6a</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1231,7 +1231,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_fc875045_6505_4aeb_8a5b_f73f4769cf99</t>
+          <t>http://purl.org/cognite/neat/neatId_38955f2c_7c26_4479_aa2e_f058b84f8c8f</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1266,7 +1266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_7daab063_3f7b_4549_a1cc_abe02ef83369</t>
+          <t>http://purl.org/cognite/neat/neatId_1103f327_32dd_4a59_a0ae_87dd109eefe8</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1301,7 +1301,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_b0bc5ccb_5f6a_4b9f_9290_5757571840dc</t>
+          <t>http://purl.org/cognite/neat/neatId_2e7ee900_fdcd_42c1_afe2_98584de9bf17</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1347,7 +1347,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_b90aae96_057c_4baf_9d66_3b70de4cee69</t>
+          <t>http://purl.org/cognite/neat/neatId_32d3da76_b886_475d_b96a_01f394006c2a</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1393,7 +1393,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_340f20e5_ea3f_47c7_b3c5_8ee0d99fe6d2</t>
+          <t>http://purl.org/cognite/neat/neatId_c7278b53_8426_429a_8f62_cd6b25d3c15d</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1439,7 +1439,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_f14009a2_213a_4593_a442_0961f52a2e88</t>
+          <t>http://purl.org/cognite/neat/neatId_40a1ebef_d855_486e_82f6_0a554ca7c8e9</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1485,7 +1485,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_5d5412fa_dc0d_4e84_a96e_9b03be93be70</t>
+          <t>http://purl.org/cognite/neat/neatId_00eecde8_9b17_4324_bb1e_3b17de3c1aec</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1531,7 +1531,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_5add9386_6b59_4d2e_8aec_abe80909a450</t>
+          <t>http://purl.org/cognite/neat/neatId_f16066a0_d9c3_45c5_8239_b0b0beb66552</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1577,7 +1577,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_9f14a00c_7e16_4041_9e5f_086cfba0e801</t>
+          <t>http://purl.org/cognite/neat/neatId_63625677_2dbe_454a_97d9_42284e0f982a</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1623,7 +1623,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_454bfd63_617c_4798_87a7_64c3d97a25f8</t>
+          <t>http://purl.org/cognite/neat/neatId_cfe31ec3_a396_4258_9118_506e5f7aad82</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1664,7 +1664,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_7be01225_baa9_4029_9532_133ab5448121</t>
+          <t>http://purl.org/cognite/neat/neatId_d4d05e6c_71f1_42c6_8fdb_876b3458f3e3</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1705,7 +1705,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_b700b010_6ca5_42da_8431_6fa10669923a</t>
+          <t>http://purl.org/cognite/neat/neatId_7e791537_fe4b_4232_828b_fefa2ee74658</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1746,7 +1746,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_d616fb8c_63f3_46fc_ad94_97f0632b7160</t>
+          <t>http://purl.org/cognite/neat/neatId_691645b5_7685_4375_95a1_484bc4d346bf</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1792,7 +1792,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_751213b2_f188_4511_9683_615f1f192875</t>
+          <t>http://purl.org/cognite/neat/neatId_f8c20cd3_3ea7_4c28_9683_bf6f99fd5e60</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1838,7 +1838,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_f52a8892_c5df_411e_8fe0_07f00d34d6d8</t>
+          <t>http://purl.org/cognite/neat/neatId_8b2113e6_925e_4b1d_85be_87e080732091</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1884,7 +1884,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_451724ce_0a93_45f2_aeb3_5b569445a689</t>
+          <t>http://purl.org/cognite/neat/neatId_d4ace009_08be_4ecf_92d8_b2846efabf33</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1930,7 +1930,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_6ead5e7f_98a3_4dec_9fb1_fbb181991c79</t>
+          <t>http://purl.org/cognite/neat/neatId_d0f80520_9335_43df_bc28_d2e1af95936a</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_6e525edf_e936_4cdc_9ad6_32c1ff6e0ada</t>
+          <t>http://purl.org/cognite/neat/neatId_5eb0cea5_4ebe_4010_b492_e18a005c9f87</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2022,7 +2022,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_1ef5bb69_524b_44e4_ad81_425b78961a9f</t>
+          <t>http://purl.org/cognite/neat/neatId_79048e5a_d902_41fe_a750_88e2b8668335</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2068,7 +2068,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_54b21d36_c229_45de_89db_28384d0dcae1</t>
+          <t>http://purl.org/cognite/neat/neatId_0f7d3e11_9f40_4e11_be0f_8dce1a8439db</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2114,7 +2114,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_d671b4be_c40e_4af0_86da_a2e0c1822790</t>
+          <t>http://purl.org/cognite/neat/neatId_eb8d3e13_156d_4d71_a030_cd37a381d6a4</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2160,7 +2160,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_78e28404_477c_4d66_a555_9a1815b2fc06</t>
+          <t>http://purl.org/cognite/neat/neatId_a613a422_1534_47d5_b4f3_8cd64ec1e918</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_0fee6ce8_432d_4aec_ae6a_49648acb539e</t>
+          <t>http://purl.org/cognite/neat/neatId_6bdda32b_16b9_40cc_8309_cc820ff7060f</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2272,7 +2272,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_74810cd4_8fda_4d9d_8c46_d717b4df3bb6</t>
+          <t>http://purl.org/cognite/neat/neatId_827cdc1c_1088_4b6a_bac7_d1c1444425f7</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2328,7 +2328,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_6350663e_149d_4949_a4a7_65383c2e3d8a</t>
+          <t>http://purl.org/cognite/neat/neatId_26dad8ee_d953_40ec_a237_444f380ebc72</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2374,7 +2374,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_c6899dee_c741_47df_857f_4482658dd0f6</t>
+          <t>http://purl.org/cognite/neat/neatId_2784166e_7839_4971_8afd_5bd88690937b</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2420,7 +2420,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_41a34228_f282_4ea2_9342_4fa18270b870</t>
+          <t>http://purl.org/cognite/neat/neatId_afe2bda0_ee67_40cf_bce9_1a1ed1c1a822</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2460,7 +2460,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_9382f69d_a2a0_4177_b2dd_11c00e0bde37</t>
+          <t>http://purl.org/cognite/neat/neatId_7cae39ea_b7f0_49f6_ac09_302932a37e1c</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2516,7 +2516,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_ae51781b_310f_4fcb_afdc_d562799fa337</t>
+          <t>http://purl.org/cognite/neat/neatId_681169c4_0581_4a33_9412_4200b1abd21f</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2556,7 +2556,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_c2133701_d871_46e3_8e0c_9ff7981be3a0</t>
+          <t>http://purl.org/cognite/neat/neatId_90c4bfa9_48e3_420e_8f77_f76707ce5a3c</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2596,7 +2596,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_3d49fbee_505b_4fe2_b7da_c79c819e0abb</t>
+          <t>http://purl.org/cognite/neat/neatId_c7e1159c_1e61_4385_b666_f45f05ea7e1e</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2636,7 +2636,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_017b9ac8_608b_426c_b196_536dea83b63c</t>
+          <t>http://purl.org/cognite/neat/neatId_cb014e30_2ba5_4481_8f09_b150774be23c</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2692,7 +2692,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_5fdfb88d_2193_4b5e_a564_9c6e3f2b7121</t>
+          <t>http://purl.org/cognite/neat/neatId_1f61562f_20e0_493a_b4e5_4ef80ff59638</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2748,7 +2748,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_38109c23_1a83_4dfb_aca3_bef60d4534ac</t>
+          <t>http://purl.org/cognite/neat/neatId_1d7dc5b3_d389_4206_aa4b_e365685fdd37</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2799,7 +2799,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_54260762_7e99_449e_b81f_570c59207a57</t>
+          <t>http://purl.org/cognite/neat/neatId_1573d98f_691a_47a0_8e2b_b422dea057d2</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2855,7 +2855,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_18a403fe_29f2_4b07_aa5d_e6dba060bffe</t>
+          <t>http://purl.org/cognite/neat/neatId_7f09452d_d174_44c1_9267_1738c9760587</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2895,7 +2895,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_a0288e8f_3416_4dd1_8556_e39305c8b768</t>
+          <t>http://purl.org/cognite/neat/neatId_9a174c44_5a2b_4f78_a80c_9c0df33275a0</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2951,7 +2951,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_ae1ac0d9_4e82_4277_9bc7_cfd20c7b755b</t>
+          <t>http://purl.org/cognite/neat/neatId_aa351421_c8e8_4a0f_8deb_4ba4e17759f0</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3007,7 +3007,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_e7a1120a_4703_4525_9f6e_74a0cc2958c8</t>
+          <t>http://purl.org/cognite/neat/neatId_04528f9f_0bfd_4ab2_b71c_c7ba0334a41e</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3063,7 +3063,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_058fc30f_0f7b_474f_82a0_00b09fd3ac22</t>
+          <t>http://purl.org/cognite/neat/neatId_1d3efc98_7134_4dd8_8cf5_b8402b12dd4b</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3119,7 +3119,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_743ecc44_d779_4a0f_8b3f_10e00eabe163</t>
+          <t>http://purl.org/cognite/neat/neatId_f824d0ae_edaa_4b58_86b1_2de467aa3d94</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3175,7 +3175,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_db886925_99cb_4b34_8450_88ef0870cccc</t>
+          <t>http://purl.org/cognite/neat/neatId_17019b7a_1ad7_453b_a0c4_5e329091fcfd</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3231,7 +3231,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_cf235dd3_86c0_4508_861c_a353b9f6c9be</t>
+          <t>http://purl.org/cognite/neat/neatId_6e4ae243_9e98_4a70_9ef9_e61d817299c3</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3266,7 +3266,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_e3da6ecc_210d_46d4_8406_7630ec9c1e65</t>
+          <t>http://purl.org/cognite/neat/neatId_95f1a665_2b44_4426_9b52_95c1f8d3eede</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3312,7 +3312,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_1bfbd1dc_e416_48e7_8643_675f2ee0f979</t>
+          <t>http://purl.org/cognite/neat/neatId_54f15714_4d45_4967_96b7_3b218ea2a332</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3363,7 +3363,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_774beab2_615d_4d22_8f27_e4138ce9d876</t>
+          <t>http://purl.org/cognite/neat/neatId_2b3b5e2b_62d2_4cd0_9aec_5b11d3a8a332</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3414,7 +3414,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_333f81dc_9407_4801_81b2_3b7394ada307</t>
+          <t>http://purl.org/cognite/neat/neatId_7509adaa_7841_465f_90ca_ffb9a612769a</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3465,7 +3465,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_2e5f1a44_4e69_474a_8e1b_c5e06e1f366f</t>
+          <t>http://purl.org/cognite/neat/neatId_069323bc_023a_4aed_a03e_48d8b3461a88</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3511,7 +3511,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_7393b8e2_7318_4a73_89ff_51dd5907c3fc</t>
+          <t>http://purl.org/cognite/neat/neatId_8f38d92f_f7f0_4b7a_b603_10bb3e305f51</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3557,7 +3557,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_c63c49e9_0b62_4305_a1ee_97ae9dc4a9be</t>
+          <t>http://purl.org/cognite/neat/neatId_2c569d4c_10d0_40d8_8203_5e4f0281d393</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3608,7 +3608,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_ba573ecd_1dc5_4915_a1d7_c8261e06cf9c</t>
+          <t>http://purl.org/cognite/neat/neatId_3f549207_3b94_4e13_817b_5d67d03ca5e0</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3654,7 +3654,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_2e32712f_cbd6_4fc6_9f48_4265a36222e6</t>
+          <t>http://purl.org/cognite/neat/neatId_650f063b_f9ee_49ba_9d0d_12dce48c2e3f</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3705,7 +3705,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_ebc57469_1e03_4a68_8bb8_6f6a105bc478</t>
+          <t>http://purl.org/cognite/neat/neatId_e2b58805_74e8_4adc_aee0_466582001520</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3756,7 +3756,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_468f56c2_48b0_4fea_a736_cb2bb52c42ad</t>
+          <t>http://purl.org/cognite/neat/neatId_00d45112_d5d0_442e_9326_3944bc426f00</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3807,7 +3807,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_dad57c6f_c54f_4952_8c15_48662382a334</t>
+          <t>http://purl.org/cognite/neat/neatId_3dd0639c_cf41_49c8_99bd_1e4d9b89c8ae</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3858,7 +3858,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_3330c251_4a7b_4eb6_bac7_7d09bdc7af49</t>
+          <t>http://purl.org/cognite/neat/neatId_2449247f_ad56_49e3_88e9_00baa32a072d</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3909,7 +3909,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_998e39f5_4443_4f5a_8fcb_435dacf5f255</t>
+          <t>http://purl.org/cognite/neat/neatId_6d7e94a1_9f86_41cb_ad46_b4baff64c00b</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3960,7 +3960,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_a532f2ee_5b30_4398_9edd_734ce19cd0a3</t>
+          <t>http://purl.org/cognite/neat/neatId_b4ca08c1_3e58_4ab0_b338_b10b4df7b744</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4006,7 +4006,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_9933d83a_2a27_4d6e_add7_272b5edc2bf1</t>
+          <t>http://purl.org/cognite/neat/neatId_0b565096_af57_425b_b096_de1e50458da6</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4052,7 +4052,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_aa057543_0f2f_48c7_8adf_3ef4f27191f6</t>
+          <t>http://purl.org/cognite/neat/neatId_abb53ec8_c715_4e46_991e_8ec62349280e</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4103,7 +4103,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_b2e43a4b_eb4d_4220_907c_3a750b34efbf</t>
+          <t>http://purl.org/cognite/neat/neatId_baea319c_44b8_4cea_8723_5024ba5a6bff</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4149,7 +4149,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_671ebedc_6ede_4f3f_acc4_ff3a7bbf6386</t>
+          <t>http://purl.org/cognite/neat/neatId_8f4eadd6_02df_4a15_8679_79574136fb97</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4195,7 +4195,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_cf141617_7b3a_47c9_b6fd_71208f43f400</t>
+          <t>http://purl.org/cognite/neat/neatId_bbca0ed9_b86f_4981_adf1_8e2bc3979c1e</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4241,7 +4241,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_0e2fec3f_f0f2_4ccb_a24d_dafe1e6d90db</t>
+          <t>http://purl.org/cognite/neat/neatId_3df78697_8e07_4123_90b6_413a11d2f948</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4287,7 +4287,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_146edf96_dade_41f0_b9ba_3071c9f94f3f</t>
+          <t>http://purl.org/cognite/neat/neatId_50aeb02b_720c_49f9_8abf_377242cfa6a4</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4333,7 +4333,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_89a03318_38e7_43c1_bcb0_6051f90adf82</t>
+          <t>http://purl.org/cognite/neat/neatId_27e46339_e445_4a44_9ba0_2755b421d817</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4379,7 +4379,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_a0fe0629_cf34_407d_8961_23a30d6fa89c</t>
+          <t>http://purl.org/cognite/neat/neatId_3f46afc0_afa9_490d_ad51_dbd6e989dd10</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4425,7 +4425,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_71fda984_88d7_4299_b0e7_b873df9079a9</t>
+          <t>http://purl.org/cognite/neat/neatId_04999374_2a58_4bfa_b182_e8a0538a6613</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4471,7 +4471,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_615ad097_db06_495b_940c_a39f659cca76</t>
+          <t>http://purl.org/cognite/neat/neatId_3c3f93e6_ca8b_4110_8c32_84179f005809</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4517,7 +4517,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_5dcdb719_bcbe_47d6_88cb_d18666275cf1</t>
+          <t>http://purl.org/cognite/neat/neatId_071127f0_dc07_4868_8edd_7adf190f2e0b</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4563,7 +4563,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_8f29bf44_2c3e_489e_9c3c_5b8e31b5da5b</t>
+          <t>http://purl.org/cognite/neat/neatId_04a9181b_7fb7_4432_a451_7e1b18575383</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4609,7 +4609,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_9571ec20_424f_447b_8e1a_d67a4bb7941a</t>
+          <t>http://purl.org/cognite/neat/neatId_3ad9411f_955d_4d22_aa55_00a13801015c</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4655,7 +4655,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_3add915d_c4c8_4164_9396_e53e1d7e303a</t>
+          <t>http://purl.org/cognite/neat/neatId_de97b2c8_29a9_438d_9901_43017c9fbcf6</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4701,7 +4701,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_bf59b5bc_d045_403f_b218_f571641b120c</t>
+          <t>http://purl.org/cognite/neat/neatId_f0e17d15_2808_4577_93e9_7445ea33aecf</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4741,7 +4741,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_019b1158_ce2d_426f_a144_2716ce5b58ea</t>
+          <t>http://purl.org/cognite/neat/neatId_3eae5f65_025a_4990_93d9_f4186e471d3f</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4797,7 +4797,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_b126b1c4_e0d2_451a_a0cb_01eafd783801</t>
+          <t>http://purl.org/cognite/neat/neatId_e7ecee02_9a66_4185_bfa6_7b16083dc32a</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4853,7 +4853,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_8afe0a6d_cf5b_48c9_90ab_5abc35fbb99a</t>
+          <t>http://purl.org/cognite/neat/neatId_ebf89c2e_de63_4cfb_b365_bea2a78c0737</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4909,7 +4909,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_9ca4836c_f1e1_4897_906b_fa6432ab4720</t>
+          <t>http://purl.org/cognite/neat/neatId_71df2236_57f7_4dd1_9aba_c7adae2f7583</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4965,7 +4965,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_fca01d2b_cb35_466e_b7c6_c7a1bed4e265</t>
+          <t>http://purl.org/cognite/neat/neatId_93ab6d26_6cc7_47d0_ba75_5064feb6377d</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -5021,7 +5021,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_795a386d_75ed_4253_bce1_c8541ff55e5c</t>
+          <t>http://purl.org/cognite/neat/neatId_6ec68f11_fcbb_4efd_a767_fa1a9a2068ad</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5061,7 +5061,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_594db3b4_b2f9_4f74_b359_f59a6ddcc5d5</t>
+          <t>http://purl.org/cognite/neat/neatId_ede7bf92_02ff_49ae_adc0_45b0b0df9e7d</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5117,7 +5117,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_d0275958_62f4_4d99_a5d5_27228e06fdb1</t>
+          <t>http://purl.org/cognite/neat/neatId_adf61eaa_b21d_45f4_b047_a99a50e11bb0</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5168,7 +5168,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_b0875080_2a02_44b7_bfd9_18d44716dc0b</t>
+          <t>http://purl.org/cognite/neat/neatId_eab75f62_124d_4aaa_bce2_ea9d6a957851</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5224,7 +5224,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_f7332f43_2dbd_4161_b825_6ddc108a97b9</t>
+          <t>http://purl.org/cognite/neat/neatId_47ca5533_376b_4eb9_ba1d_e9a794b086e2</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5275,7 +5275,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_bae0dd48_3125_4685_b093_9b97b33918e9</t>
+          <t>http://purl.org/cognite/neat/neatId_826d6b3b_5133_4a42_9161_0d903fcf9595</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5331,7 +5331,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_b6f4be66_02fb_4d4a_9e25_f7913f65910a</t>
+          <t>http://purl.org/cognite/neat/neatId_6d48a274_3999_4325_b095_620b6d919527</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5387,7 +5387,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_9dbfc7ab_2a2c_416c_acee_26952fa32330</t>
+          <t>http://purl.org/cognite/neat/neatId_41bb7f0d_d43b_477d_904e_cfb15474e8af</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5438,7 +5438,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_38c8ee11_fa72_4ef1_a4df_5bc23278ade5</t>
+          <t>http://purl.org/cognite/neat/neatId_3ddad3af_7eeb_4b74_a4cb_ea603ce108f7</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5478,7 +5478,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_770d4d19_2c66_4e19_8b74_87205d42b0c6</t>
+          <t>http://purl.org/cognite/neat/neatId_a2bd949d_5487_402c_950f_54cf52e1d634</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5534,7 +5534,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_99f94e3f_6662_4e36_a9c0_26dd874fe733</t>
+          <t>http://purl.org/cognite/neat/neatId_2b551820_794c_4a3e_b991_043d39901800</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5585,7 +5585,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_369c01b2_cb3f_4d7a_a9d4_d9fa543b0af0</t>
+          <t>http://purl.org/cognite/neat/neatId_a63c4e62_ad85_4bda_abeb_b5cd2cf34022</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5636,7 +5636,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_3448ed5a_ab7e_4277_8be1_31ab7a0f7388</t>
+          <t>http://purl.org/cognite/neat/neatId_ccfc9114_c8db_4426_aedc_12ae1e6d8adb</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5692,7 +5692,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_f91250a7_0dfd_448f_b039_8fd5ba412aee</t>
+          <t>http://purl.org/cognite/neat/neatId_2a3c52ce_5d51_46a1_bc35_26643c86bc37</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5748,7 +5748,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_c838da70_aef5_4006_9f50_4fe09f991004</t>
+          <t>http://purl.org/cognite/neat/neatId_3ca7ca99_d584_4d10_b527_bfe899822113</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5799,7 +5799,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_923d931a_4034_4548_9103_dd77e8a148c2</t>
+          <t>http://purl.org/cognite/neat/neatId_c7574377_dabe_43e6_bb17_b4ad26450373</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5834,7 +5834,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_17b52559_0de2_4ef1_b498_128ae8f1243d</t>
+          <t>http://purl.org/cognite/neat/neatId_45847b8c_40ae_41e5_b5c0_063d8320f8b8</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5885,7 +5885,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_66e2d58f_599c_4a2f_bf63_0c60c3dcfa91</t>
+          <t>http://purl.org/cognite/neat/neatId_c6ae91a0_7d92_4c3c_8269_61bf0434b4db</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5931,7 +5931,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_caff086f_3adb_43fb_a3bc_50b8ff6d510b</t>
+          <t>http://purl.org/cognite/neat/neatId_9719792b_a6d8_4269_8555_3667816f8b2d</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5977,7 +5977,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_2fc6a281_05b3_4786_a203_dd2d5c89db23</t>
+          <t>http://purl.org/cognite/neat/neatId_e773cde1_20c5_4f07_b275_579e8db24570</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -6028,7 +6028,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_5545ad80_971f_43eb_8951_432c678bb05c</t>
+          <t>http://purl.org/cognite/neat/neatId_ac099364_901f_4c2c_97f0_493518b037f8</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -6079,7 +6079,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_97edf06b_9985_49a6_a095_ea6f074f35d2</t>
+          <t>http://purl.org/cognite/neat/neatId_5e9acd76_2c0e_4259_8128_1c7b705bb4e3</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -6130,7 +6130,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_46799f9b_882a_40d7_81fd_f1efc1953dd2</t>
+          <t>http://purl.org/cognite/neat/neatId_d83dc266_3426_4c3a_81da_16a04afc4cbb</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -6176,7 +6176,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_5776587c_77c3_4c26_a159_b1ab2deb8ad8</t>
+          <t>http://purl.org/cognite/neat/neatId_06471bfa_76e1_4eda_807e_1ea8c1021136</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -6222,7 +6222,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_9fd86ccd_d34c_4d70_bba8_cf1caa0e10db</t>
+          <t>http://purl.org/cognite/neat/neatId_203b0eda_863b_43d3_ad89_3e3101be4434</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -6268,7 +6268,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_24e45520_a948_4f8f_a5ea_a4d8ee695da5</t>
+          <t>http://purl.org/cognite/neat/neatId_aeb9977e_e653_4524_9545_77f568ddadd4</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -6319,7 +6319,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_3cad148b_23b5_4435_9cc5_c2945f5eaf7c</t>
+          <t>http://purl.org/cognite/neat/neatId_6067bd00_520e_4fbc_a7c5_c37999dd9cdf</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6370,7 +6370,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_080a89ae_154b_4429_a4d5_d9ba8bc34eae</t>
+          <t>http://purl.org/cognite/neat/neatId_fb6e36ce_2761_46ea_b1bd_eae46fabdfc4</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -6421,7 +6421,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_f80bc187_81c3_46a8_af29_b8e3f7ab12a0</t>
+          <t>http://purl.org/cognite/neat/neatId_49c948cd_86fa_469d_bdf2_653083f8a33a</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6472,7 +6472,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_0c4cadf4_a4eb_46b9_b9d9_9331100b96f6</t>
+          <t>http://purl.org/cognite/neat/neatId_aebe6287_6cfb_4974_a551_dd18b37302cd</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6518,7 +6518,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_599666fc_b7b2_47ac_a87c_a082773588b3</t>
+          <t>http://purl.org/cognite/neat/neatId_293a3467_9146_4391_b899_3a93b5ec5662</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6564,7 +6564,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_ec51477d_fb79_4519_9d5d_59ff0943f306</t>
+          <t>http://purl.org/cognite/neat/neatId_e1a1d12a_5f0d_4387_b344_502357aed31c</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6620,7 +6620,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_b6eed094_fc8b_48d2_a879_8faec25f8d90</t>
+          <t>http://purl.org/cognite/neat/neatId_0a944b0c_e5dd_4a1e_89b1_0feab777412a</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6666,7 +6666,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_161db38f_a1c4_48c6_aab6_bc18f8e6471a</t>
+          <t>http://purl.org/cognite/neat/neatId_e062586b_0e61_4814_92ca_334f8ee66cb8</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -6717,7 +6717,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_8519b148_4987_434c_9f21_d24079103567</t>
+          <t>http://purl.org/cognite/neat/neatId_db16bfe4_8e15_4dc1_bb9d_1cba48305ac1</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6763,7 +6763,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_64bf8a31_6898_4102_adc8_3682ee9fbcb1</t>
+          <t>http://purl.org/cognite/neat/neatId_e03d0f52_4db5_4555_a45e_8c33471c8b44</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6814,7 +6814,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_befabcc0_71dc_48fe_9a1d_2e2c3e598fb9</t>
+          <t>http://purl.org/cognite/neat/neatId_4d060aa9_01a1_41a9_b4c6_858b22e46576</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -6865,7 +6865,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_fe765b99_4bbc_4095_9799_b224c4d30f2a</t>
+          <t>http://purl.org/cognite/neat/neatId_e812bec8_0fe6_4957_92c4_7a0e2e80bd77</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -6911,7 +6911,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_a14dbdac_38a9_47a8_b292_3ab03b06eabd</t>
+          <t>http://purl.org/cognite/neat/neatId_2f1d79ae_474f_4139_b5b0_34d9b7e03407</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -6951,7 +6951,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_411ad9b3_8b5e_4611_b4ad_481eae68cb2b</t>
+          <t>http://purl.org/cognite/neat/neatId_a01af414_c051_421a_8528_e8d43fae8ff4</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -7007,7 +7007,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_653f16bd_28f0_4f51_83da_70b98de1a670</t>
+          <t>http://purl.org/cognite/neat/neatId_91c81a2d_066f_4ec3_b795_ad0c240ed66d</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -7063,7 +7063,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_e48b2ab2_7474_43a9_bb4f_75edd9b29648</t>
+          <t>http://purl.org/cognite/neat/neatId_a75f6ab2_18f2_4c59_bc13_0210f3d895c3</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -7119,7 +7119,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_8447c503_3401_4a7a_abcf_4df675a876f0</t>
+          <t>http://purl.org/cognite/neat/neatId_00816a00_80d5_4c77_848e_a893683e4df7</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -7170,7 +7170,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_af145d61_527b_498a_bc5c_25fb72061f46</t>
+          <t>http://purl.org/cognite/neat/neatId_2f2c3b4f_35a9_4c0c_9a87_c5a0d10db721</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -7221,7 +7221,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_da203953_5de0_4a2f_878e_442971640de7</t>
+          <t>http://purl.org/cognite/neat/neatId_125959fa_5b2d_4754_94a0_667ee788c93d</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -7277,7 +7277,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_beefc120_d19b_478f_ac18_936c917cb0a0</t>
+          <t>http://purl.org/cognite/neat/neatId_56cf1e4b_b6ac_40e6_bb9d_0e5a65863164</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -7323,7 +7323,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_04580be1_4779_46b0_91e7_118906b57e1a</t>
+          <t>http://purl.org/cognite/neat/neatId_f3c8fe6d_4938_4997_be3f_d4a3cbd58e49</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -7369,7 +7369,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_94ec840c_a959_41e9_bb41_cf5435e416e8</t>
+          <t>http://purl.org/cognite/neat/neatId_daa52120_f71e_4ca8_8032_91e93c473b4f</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -7415,7 +7415,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_28f78260_7f4c_4aba_b007_5f61b6610843</t>
+          <t>http://purl.org/cognite/neat/neatId_2fba9514_f87e_4a46_b8d3_91462bc572e5</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -7461,7 +7461,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_c8a741ea_bb58_430b_9402_0bbed5c2aac6</t>
+          <t>http://purl.org/cognite/neat/neatId_01d9abb9_409f_427e_b390_f3fac5a64c66</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -7517,7 +7517,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_5577aaaf_34f4_4871_b71b_e7af7dd97114</t>
+          <t>http://purl.org/cognite/neat/neatId_af6fa404_8753_42b0_9f52_8f85b3555f59</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -7578,7 +7578,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_630887a5_2f2e_4473_af92_292b2d19cf39</t>
+          <t>http://purl.org/cognite/neat/neatId_979a48a5_0034_4756_8642_bbd530b4de24</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -7618,7 +7618,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_1903745f_edcf_4951_a794_6a1e21fa201e</t>
+          <t>http://purl.org/cognite/neat/neatId_c3d0ec1a_9fd8_4b7d_9f7a_48e304a92765</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -7674,7 +7674,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_db4b5f45_f61e_4a65_a429_80881432b1dd</t>
+          <t>http://purl.org/cognite/neat/neatId_f6cd56f2_8f5d_45e2_9a24_0d7b3bdfd050</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -7725,7 +7725,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_362b9c7c_c2d1_4a34_a214_a5802571f5cf</t>
+          <t>http://purl.org/cognite/neat/neatId_6ed3acc2_a619_4b17_b8ef_172215d28b69</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -7781,7 +7781,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_652edfb3_0c1d_47e1_903b_b9d36aa88c87</t>
+          <t>http://purl.org/cognite/neat/neatId_a57fffd1_8375_481a_8d3a_604eef255ac4</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -7837,7 +7837,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_e9601b95_0026_4fde_8839_a227169a2913</t>
+          <t>http://purl.org/cognite/neat/neatId_8c08369d_87ad_4887_b50c_a2f2b43265d1</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -7898,7 +7898,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_008a4a0e_e3f1_452e_8bed_b69c8ff27668</t>
+          <t>http://purl.org/cognite/neat/neatId_6f72c475_21da_4471_89d7_387dd3e26cea</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -7959,7 +7959,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_2d949449_53d2_4c1b_bb31_63cabd1eadea</t>
+          <t>http://purl.org/cognite/neat/neatId_525b7c78_083e_4bb7_9ae3_77214a348078</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -8015,7 +8015,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_35163afa_5d56_4c01_a3d1_5631deb9ebc2</t>
+          <t>http://purl.org/cognite/neat/neatId_6508557b_1303_4258_94e7_5a6f96158fab</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -8066,7 +8066,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_629ce7ac_96ec_420c_8b14_3ee71fb4916c</t>
+          <t>http://purl.org/cognite/neat/neatId_c1a26a01_ac84_4c30_85c1_a5ddf0cfd307</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -8122,7 +8122,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_c6875274_a20b_441e_8613_6538b11730e5</t>
+          <t>http://purl.org/cognite/neat/neatId_e3085e3e_1578_4f07_9e49_316deddbd4d5</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -8173,7 +8173,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_1465a698_c715_484f_8de2_8992ecee3187</t>
+          <t>http://purl.org/cognite/neat/neatId_8efc793b_51c5_4458_a1ef_1f53e0a94710</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -8234,7 +8234,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_45f2ad66_0ff8_4427_af96_663fe3b0d6ca</t>
+          <t>http://purl.org/cognite/neat/neatId_5744766e_e327_4989_b8a0_a0eb4cc75938</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -8290,7 +8290,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_e0775ebe_b634_4203_a30a_b8031ac6621f</t>
+          <t>http://purl.org/cognite/neat/neatId_0983b8e4_3e71_4e0c_af66_719c9458caa9</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -8351,7 +8351,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_df8ce1e9_3472_4898_8e1d_3b320befdcbe</t>
+          <t>http://purl.org/cognite/neat/neatId_971377f4_917c_4fed_90fb_c83956a2b086</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -8402,7 +8402,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_8764be9c_22c7_4c42_b3ed_0f54124bc8cb</t>
+          <t>http://purl.org/cognite/neat/neatId_ef124247_023d_4f54_b029_ed2a8d844361</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -8453,7 +8453,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_4024923d_f53c_42cc_8564_4f25e4843a7e</t>
+          <t>http://purl.org/cognite/neat/neatId_d8940a75_ee48_4d13_9d92_c6743b1f0aa5</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -8504,7 +8504,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_fd8d733e_eb9b_40fb_b27e_ea9ebd6242b5</t>
+          <t>http://purl.org/cognite/neat/neatId_eaab6dbe_beaf_45cb_b901_34168771ac1d</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -8555,7 +8555,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_1d8896a6_24fe_4444_8c66_602539d113f4</t>
+          <t>http://purl.org/cognite/neat/neatId_d6b88184_5fcb_4aa0_a1cd_80dbba84bb50</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8693,7 +8693,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_2c97d674_a7c8_489f_b828_15c78e4b03c0</t>
+          <t>http://purl.org/cognite/neat/neatId_a8e3a5df_8f9a_44bd_a663_b352208f5e6c</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -8714,7 +8714,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_02a9262b_e014_46f9_ab22_b72161221a2d</t>
+          <t>http://purl.org/cognite/neat/neatId_1166c664_ad2a_4912_aa99_a61409384bba</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -8735,7 +8735,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_635feb83_a952_40d6_ba7f_e0f573db9207</t>
+          <t>http://purl.org/cognite/neat/neatId_341357e8_923f_4ffc_87f3_64f85b4af6ce</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -8760,7 +8760,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_9ffd9859_02f3_452c_be88_49fcfc021ced</t>
+          <t>http://purl.org/cognite/neat/neatId_695911b0_1af6_4d20_9fab_7ce36e80c588</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -8785,7 +8785,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_a14e3d4a_34c1_43dc_ae28_20ac1f75a731</t>
+          <t>http://purl.org/cognite/neat/neatId_b4541177_f13e_485e_ad08_e4d03182bb0c</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -8810,7 +8810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_caacbf8b_b067_46e5_97c0_c09f2240eed3</t>
+          <t>http://purl.org/cognite/neat/neatId_d71f6659_1554_4d7a_ada9_5a85c0eb52a2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -8835,7 +8835,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_81816916_478e_4c8e_8680_27f2e74fb74f</t>
+          <t>http://purl.org/cognite/neat/neatId_3d6593d2_298d_4269_a3b0_8a52ee977fe6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -8860,7 +8860,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_4ec1a81e_42e3_4d85_8f35_6e23441ed18f</t>
+          <t>http://purl.org/cognite/neat/neatId_9071db01_656d_40a3_a689_f61ebb59e471</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -8880,7 +8880,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_72b208e5_da94_4afd_b25f_42d4be70aa81</t>
+          <t>http://purl.org/cognite/neat/neatId_cbd82e1e_170a_46af_a28f_c620bb45ddea</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -8900,7 +8900,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_0f152cb6_13e4_4b24_916f_ecf548838019</t>
+          <t>http://purl.org/cognite/neat/neatId_32922cf4_a8ba_444c_ba13_5737af34f054</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -8930,7 +8930,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_ed178edb_d308_4fbf_883d_38df024d0609</t>
+          <t>http://purl.org/cognite/neat/neatId_9990abcb_dbc2_4d09_ac18_1ff5eda17df4</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -8955,7 +8955,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_b1733c49_911e_445d_8859_8c9ed4410a4e</t>
+          <t>http://purl.org/cognite/neat/neatId_98208d57_1269_4078_84e7_88dd7a8585be</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -8985,7 +8985,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_6156963b_5243_4627_923b_ef0be9322977</t>
+          <t>http://purl.org/cognite/neat/neatId_a3225a1a_f2d5_477c_862c_af6357e5843a</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -9015,7 +9015,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_564c1b83_0b8d_401d_892c_3aa40154d9b0</t>
+          <t>http://purl.org/cognite/neat/neatId_6486b4bd_1b50_4e52_a814_949dffb09891</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -9045,7 +9045,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_75fc3f55_0689_4b9f_950c_c91fde108e10</t>
+          <t>http://purl.org/cognite/neat/neatId_17a5eca1_868a_40a2_a1d5_922cf641b27b</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -9070,7 +9070,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_54f783e5_e4ac_41fd_a422_8909be1c2b68</t>
+          <t>http://purl.org/cognite/neat/neatId_dc7c59e9_a644_40b1_8c9d_b8d5f5c81116</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -9095,7 +9095,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_5d63cf9c_d287_4474_b065_af587b1382c7</t>
+          <t>http://purl.org/cognite/neat/neatId_4ace6e27_712c_4607_9404_740a50d1278a</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -9116,7 +9116,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_7947dc6b_0c9b_43b3_a5b0_38b696910b8f</t>
+          <t>http://purl.org/cognite/neat/neatId_f70c4202_49de_41d9_bbc0_ae0371fe4019</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -9136,7 +9136,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_f8f3a8ef_5915_4ac6_8c8b_e3224fc1bf46</t>
+          <t>http://purl.org/cognite/neat/neatId_dfeaad05_4297_449d_8f54_63d940bd3e4a</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -9156,7 +9156,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_87df80eb_50b7_43ef_96ef_71c214611f20</t>
+          <t>http://purl.org/cognite/neat/neatId_211ec337_2725_4350_8f09_36758317656c</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -9181,7 +9181,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_5e34222a_58fd_4ce2_92bb_bb49da978f97</t>
+          <t>http://purl.org/cognite/neat/neatId_ce6176d9_218d_40ba_bbb9_fb5d7c2c6226</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -9211,7 +9211,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_bfa85c65_850a_4352_8640_489b51725b82</t>
+          <t>http://purl.org/cognite/neat/neatId_35929b92_a647_44e5_9eaf_c56209165ca9</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -9241,7 +9241,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_13f0ee1c_333b_4de6_b427_d07d06c93885</t>
+          <t>http://purl.org/cognite/neat/neatId_79e99b9d_ce14_425a_b7e9_8898184a99d3</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -9271,7 +9271,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_6c0631cd_3d0d_4b74_bc71_b34580a5a624</t>
+          <t>http://purl.org/cognite/neat/neatId_72c39263_6e9d_4704_a89a_dbbd9729ce97</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -9301,7 +9301,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_61aa90dc_d6a7_4616_a558_911d0c268942</t>
+          <t>http://purl.org/cognite/neat/neatId_67b1ffc3_ea14_4702_adfa_d6bd60cc326a</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -9326,7 +9326,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_7eaf059d_bdda_4d71_ab8f_12f9297e02da</t>
+          <t>http://purl.org/cognite/neat/neatId_553ee4e3_3ac7_4693_9817_6738f8604a66</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -9351,7 +9351,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_1568b587_c57f_4b67_861f_cda4fa64b6d9</t>
+          <t>http://purl.org/cognite/neat/neatId_683cad7b_8244_4212_ba63_25e7293086fe</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -9376,7 +9376,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_f1626046_ae7c_4a69_9a72_d226c447b6a2</t>
+          <t>http://purl.org/cognite/neat/neatId_dc84829f_4d54_4580_b43a_37fbed916d03</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -9396,7 +9396,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_6fc62c46_184d_4f9e_ac10_8e2dfa956f24</t>
+          <t>http://purl.org/cognite/neat/neatId_d5db3d04_01bc_4b28_950e_8ca1a676d14e</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -9421,7 +9421,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_4c6150d0_03a7_4e3a_b210_3c7749308497</t>
+          <t>http://purl.org/cognite/neat/neatId_4f7788c6_dc99_4c97_8b0e_7ce421eee947</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -9436,7 +9436,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_fc926166_d027_4608_bd16_9b2a95b4e166</t>
+          <t>http://purl.org/cognite/neat/neatId_fa21a7f2_1f85_45d8_abd9_ac548e69d009</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -9466,7 +9466,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_c45a7ed0_b688_4679_b26c_6828838115f3</t>
+          <t>http://purl.org/cognite/neat/neatId_b2566309_d244_451d_9d2b_015d3bb42013</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -9491,7 +9491,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_aaae3de9_fb70_446d_8d3a_1f258d7928c9</t>
+          <t>http://purl.org/cognite/neat/neatId_e998e177_081d_4bec_9dc6_0543ea78baec</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -9511,7 +9511,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_e553db53_a1be_49d5_b808_f507268ed1bc</t>
+          <t>http://purl.org/cognite/neat/neatId_5e02fbf7_898e_4f69_b4ff_b51258e8b25a</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -9541,7 +9541,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_bb49b02e_bb54_48ab_a845_d3d4a25ec407</t>
+          <t>http://purl.org/cognite/neat/neatId_158d9e5f_99cd_4335_b2b1_a5049e2e7999</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -9571,7 +9571,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_d803885f_4318_434b_bb46_9ad5a3e7907e</t>
+          <t>http://purl.org/cognite/neat/neatId_d536aaf0_9667_4294_9413_44f70d3162bc</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -9671,7 +9671,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_ac54ebd7_be9c_48a2_a65e_ea00c0c4b7b6</t>
+          <t>http://purl.org/cognite/neat/neatId_ad51fa63_d621_4cf0_b299_048e07ef0033</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -9698,7 +9698,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_a6df3708_af4f_41d9_bb5f_a5217e99c90b</t>
+          <t>http://purl.org/cognite/neat/neatId_2d56c569_5bc0_4a7a_ad13_1469f158f3dd</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -9725,7 +9725,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_4ec21e91_00f3_4505_b580_e5a35a211a20</t>
+          <t>http://purl.org/cognite/neat/neatId_0b743aeb_2e5c_4a50_868b_47dac468b760</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -9752,7 +9752,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_1fdf7b4b_5f3b_4d27_b38b_80c3f2d22d49</t>
+          <t>http://purl.org/cognite/neat/neatId_ad262bc4_e064_445c_bb10_1df5fb8ecd78</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -9779,7 +9779,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_38462a77_0666_4eb4_be07_663b64ab7450</t>
+          <t>http://purl.org/cognite/neat/neatId_6dec2ccc_f685_4880_aacf_038647f531eb</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -9806,7 +9806,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_e9a1b771_a58a_4985_ba72_9d74855b8037</t>
+          <t>http://purl.org/cognite/neat/neatId_f336edb2_2bd2_4ec4_ac0a_4be057878ffc</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -9828,7 +9828,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_18615104_cbb5_4552_b56f_969e71394226</t>
+          <t>http://purl.org/cognite/neat/neatId_b71fb7f4_db66_4700_9a53_7311ddd9add6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -9850,7 +9850,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_1d23530c_bea7_48fd_88c9_ee0f1882c33b</t>
+          <t>http://purl.org/cognite/neat/neatId_3debd0c7_5273_4fd8_88e8_91ed682c1496</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -9877,7 +9877,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_ffd6ac2b_8cc3_4be9_9b05_ae8b136b9051</t>
+          <t>http://purl.org/cognite/neat/neatId_e01d9ab6_b9a4_4e71_b9bd_b9cbbfe68297</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -9904,7 +9904,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_be338f6a_b7aa_49f0_a286_e210b9350086</t>
+          <t>http://purl.org/cognite/neat/neatId_cee024b0_1e47_4416_a8bd_25f81df66844</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -9931,7 +9931,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_81f78d78_c12c_4ad7_8800_e6471f6927dc</t>
+          <t>http://purl.org/cognite/neat/neatId_9db4052d_19da_4b3b_9cc8_4681eac3eb6f</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -9958,7 +9958,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_38009b3d_ff74_4521_8762_08881214f350</t>
+          <t>http://purl.org/cognite/neat/neatId_8def437d_66e5_4609_b0e4_f205178b760f</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -9980,7 +9980,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_f990b91a_de4c_4a88_a5df_de35a5226eb9</t>
+          <t>http://purl.org/cognite/neat/neatId_a92fe135_0836_4a9b_b4f3_600beebdad0f</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -10002,7 +10002,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_f9fdb38a_0bf6_4460_aad4_8cafd441d06d</t>
+          <t>http://purl.org/cognite/neat/neatId_4fd376da_cdd5_4968_b34c_70a8bf5d1963</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -10024,7 +10024,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_6d70f275_19b4_4bfd_bac7_9848d1d89956</t>
+          <t>http://purl.org/cognite/neat/neatId_c3c5fdd4_5e8f_4cf3_980b_4c152f0d07ac</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -10046,7 +10046,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_7889b8a1_526a_4b7e_b5a0_04ff082536af</t>
+          <t>http://purl.org/cognite/neat/neatId_6fc22eef_a2e1_4bbb_82de_ae835e107c4b</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -10073,7 +10073,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_dda470b3_a407_4367_9dac_9cd578de1537</t>
+          <t>http://purl.org/cognite/neat/neatId_7a3667ad_eaba_4917_9a81_f0d50563cd49</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -10095,7 +10095,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_e1eab711_b756_4e28_b917_12feca645eac</t>
+          <t>http://purl.org/cognite/neat/neatId_e397634e_8583_409b_b285_863c9130af2d</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -10112,7 +10112,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_7337c94b_32a0_47d9_880a_7db7b688f93d</t>
+          <t>http://purl.org/cognite/neat/neatId_6250eaab_1c3e_467e_96db_899519cfdca5</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -10129,7 +10129,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_5f18d8b3_e02f_449a_9b3a_222492984ce0</t>
+          <t>http://purl.org/cognite/neat/neatId_6ac5716e_336c_4832_b295_52731c1d036f</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -10146,7 +10146,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_ac900fea_3a08_4030_8161_dd2517bd4451</t>
+          <t>http://purl.org/cognite/neat/neatId_9ac40e1f_9929_4430_a4e5_c3456a077ffa</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -10163,7 +10163,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_66af460a_c2b3_4c2e_b100_46fde623aff4</t>
+          <t>http://purl.org/cognite/neat/neatId_414c50cd_b8ab_4e59_865c_37e9673cbcd7</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -10180,7 +10180,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_6ac82c83_09b8_4c2c_a03c_2107a4094c95</t>
+          <t>http://purl.org/cognite/neat/neatId_20334625_5c8d_4c1e_ac4c_b3ca2091d104</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -10197,7 +10197,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_c7128b38_5719_4450_9bab_1002e9d5f572</t>
+          <t>http://purl.org/cognite/neat/neatId_103f60c6_9cdb_498a_b98b_bf56a477dd3c</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -10214,7 +10214,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_8c27604c_40ef_4a94_89ee_e169127de31b</t>
+          <t>http://purl.org/cognite/neat/neatId_b795fe83_e528_4a9f_9947_7b81585f20f1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -10231,7 +10231,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_64b0c1ee_74aa_4608_9d1b_e9569d88cecc</t>
+          <t>http://purl.org/cognite/neat/neatId_65fa7e3a_c2e6_4a46_aec8_47a63692b0f2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -10248,7 +10248,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_dc399036_bc90_4e94_9a34_6612d4b6ebbf</t>
+          <t>http://purl.org/cognite/neat/neatId_90320bf5_9166_43aa_b9e4_f3e36c496270</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -10265,7 +10265,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_a3ef14ad_0cc5_4519_9d0b_45fe9dec4c00</t>
+          <t>http://purl.org/cognite/neat/neatId_2384a5a2_76ab_420e_9839_7b87f2a0c3ad</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -10282,7 +10282,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_7f0c877a_5193_4e35_a55a_5c8cab56dd18</t>
+          <t>http://purl.org/cognite/neat/neatId_c4d15cb4_18aa_4f25_8cc7_96efeac4dee1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -10299,7 +10299,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_92f513da_53ac_448a_b4d4_566e4debb8f0</t>
+          <t>http://purl.org/cognite/neat/neatId_118c2a92_ea4f_4384_9dcf_042fd52eb2a4</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -10316,7 +10316,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_cf009c0c_b584_4943_9788_05c740f322bc</t>
+          <t>http://purl.org/cognite/neat/neatId_8dbbead8_e4e7_4510_afc7_3445412689a1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -10333,7 +10333,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_a14cfec7_8889_4900_ba85_ac88d9398ba9</t>
+          <t>http://purl.org/cognite/neat/neatId_6a54f3d5_81e6_4e88_b85e_c6c406787b96</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -10414,7 +10414,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_9fc6b84f_efd5_45f6_8ecb_cd6c8840e99c</t>
+          <t>http://purl.org/cognite/neat/neatId_ed9eb3b2_c426_4a2f_bf90_eaa8cc0d83cb</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -10436,7 +10436,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_d1558349_bef8_4e39_8f3a_01d2e6141556</t>
+          <t>http://purl.org/cognite/neat/neatId_5f7a56b2_f661_458f_b8fe_b99528612ee2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -10458,7 +10458,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_144c8e9a_b49c_4b48_b659_66e077ce873b</t>
+          <t>http://purl.org/cognite/neat/neatId_c248e17b_708c_4817_b756_d8a78c862d24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -10480,7 +10480,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_d2fc65e9_dc4a_449f_957f_f82f9e2e1f54</t>
+          <t>http://purl.org/cognite/neat/neatId_ec492b92_9517_49db_8093_68166bf14d66</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -10502,7 +10502,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_f75838dd_d7fb_44ad_9e6d_2da6b95e8dc6</t>
+          <t>http://purl.org/cognite/neat/neatId_317d21fd_d19e_4bbd_8371_d361a798e11a</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -10524,7 +10524,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_5ef38740_5013_4109_80a2_6895a5d1c1da</t>
+          <t>http://purl.org/cognite/neat/neatId_23d2b239_8573_4cc3_9d99_7a0f3e88b3dc</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -10546,7 +10546,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_6c14fbbf_1e0d_4b90_aa0a_599ab1949ebf</t>
+          <t>http://purl.org/cognite/neat/neatId_4f477b23_b233_4d54_b82a_9d6613dae880</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -10568,7 +10568,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_15d41cd3_f9d1_4fbd_b32f_07917ccad375</t>
+          <t>http://purl.org/cognite/neat/neatId_70e8f1b2_4450_41cc_80d7_a0087258b14a</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -10590,7 +10590,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_1c7fb24a_672c_43b0_bf35_a196fb7bab0e</t>
+          <t>http://purl.org/cognite/neat/neatId_302dbdbf_1c9b_4a83_91b2_a7dba9b21a43</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -10612,7 +10612,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_63973555_9447_401d_b5c8_3179a5139ece</t>
+          <t>http://purl.org/cognite/neat/neatId_9117825e_5530_4457_95ac_5f8bc0237f79</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -10634,7 +10634,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_185ad234_6622_47f1_b1db_fd2da0846583</t>
+          <t>http://purl.org/cognite/neat/neatId_1c955bda_330c_410a_874b_e7c8a11582be</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -10656,7 +10656,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_f598aee5_f96f_4e3c_b042_92e5e3246e76</t>
+          <t>http://purl.org/cognite/neat/neatId_acace0e6_413f_49a5_8839_e37672a624fc</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -10678,7 +10678,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_4d39994c_a87b_46e2_b65a_ea218d35edd4</t>
+          <t>http://purl.org/cognite/neat/neatId_99b9ca9a_3ee9_435f_bdc4_dcbc3ad64373</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -10700,7 +10700,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_7ea83ece_bf64_4dbb_8849_f066dcd99f93</t>
+          <t>http://purl.org/cognite/neat/neatId_e17cc8f7_46da_4824_8a96_153f63b2d91e</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -10722,7 +10722,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_2801b1fd_4008_4878_9805_c3467bba9753</t>
+          <t>http://purl.org/cognite/neat/neatId_481ccb2b_5aa8_404b_a27d_f97386d4d715</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -10749,7 +10749,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_e83727ea_5a80_4730_87df_7833428940a6</t>
+          <t>http://purl.org/cognite/neat/neatId_f05a0f47_0dce_4ade_9a06_9103933541ed</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -10776,7 +10776,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_bf0ef200_76b3_49da_aeda_59a2ad6eeb3e</t>
+          <t>http://purl.org/cognite/neat/neatId_f94b86a4_ad9d_411a_82e1_d56d1f2fa40d</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -10798,7 +10798,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>http://purl.org/cognite/neat/neatId_3bf30725_86e9_4b38_8051_ec02d57bc29d</t>
+          <t>http://purl.org/cognite/neat/neatId_84a74518_d812_4b07_81fd_c7a94a1f5117</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
